--- a/canada/7.ontario/toronto/48-on-transportation.xlsx
+++ b/canada/7.ontario/toronto/48-on-transportation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4130,6 +4130,2251 @@
         </is>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/richmond-hill/profile/transportation/cargo-romania-0107-1326995</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Cargo Romania</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>87-556 Edward Ave
+Richmond Hill, ON L4C 9W8</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>http://cargoromania.com/</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>14165437595</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>13/4/2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/ancaster/profile/transportation/ff-express-0107-1328188</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>FF Express</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>1370 Sandhill Dr
+Ancaster, ON L9G 4V5</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>tel:905-648-9300</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>19056489300</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5/5/2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/brampton/profile/transportation/kjs-transport-inc-0107-1228414</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>KJS Transport Inc.</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>247 Summerlea Road
+Brampton, ON L6T 4E1</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>http://www.kjstransport.com/</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>19057899500</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2/2/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/oakville/profile/transportation/clockwork-logistics-inc-0107-1277481</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Clockwork Logistics Inc.</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>453 Kerr St
+Oakville, ON L6K 3C2</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>http://clockworklogistics.com/</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>19054690880</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>29/5/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/bolton/profile/transportation/cavalier-transportation-services-inc-0107-1177399</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Cavalier Transportation Services Inc</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>14091 Humber Station Rd
+Box 10
+Bolton, ON L7E 5T1</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>http://cavalier.ca/</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>19058576981</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>18/9/2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/etobicoke/profile/logistics/ursus-transport-inc-0107-1191457</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Ursus Transport Inc</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>85 Vulcan St
+Etobicoke, ON M9W 1L4</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/etobicoke/profile/logistics/ursus-transport-inc-0107-1191457/email-this-business?email=primary</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>14162438780</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6/7/2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/etobicoke/profile/moving-companies/ebs-transport-inc-0107-1296779</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>EBS Transport Inc</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>3 - 47 Racine Rd
+Etobicoke, ON M9W 6B2</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>tel:416-744-3000</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>14167443000</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>10/7/2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/mississauga/profile/transportation/apps-transport-group-0107-1163360</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>APPS Transport Group</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>6495 Tomken Rd
+Mississauga, ON L5T 2X7</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>http://www.appsexpress.com/</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>19054512720</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>22/11/2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/us/ca/san-francisco/profile/transportation/uber-1116-438996</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Uber</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>1725 3rd St
+San Francisco, CA 94158-2203</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://www.uber.com/</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>14157032782</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>9/11/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/belwood/profile/transportation/witteveen-transportation-services-0107-1287141</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Witteveen Transportation &amp; Services</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>6680 Weston Rd. RR#1
+Belwood, ON N0B 1J0</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>tel:519-826-8278</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>15198268278</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>25/11/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/mississauga/profile/transportation/sunway-transport-corp-0107-1376128</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Sunway Transport Corp</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>7303 E Danbro Cr
+Mississauga, ON L5N 6P8</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>tel:289-839-4567</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>12898394567</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5/8/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/milton/profile/trucking-transportation-brokers/ssp-truck-line-inc-0107-1390304</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>SSP Truck Line Inc</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>10862 Steeles Ave E
+Milton, ON L9T 6R1</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>http://ssptruckline.ca/</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>15199683632</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>22/3/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/us/ga/atlanta/profile/delivery-service/united-parcel-service-0443-8866</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>United Parcel Service</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>55 Glenlake Pkwy NE
+Atlanta, GA 30328-3474</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>http://www.ups.com/</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>14048286000</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>12/31/1965</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/mississauga/profile/freight-forwarding/sethi-international-trans-inc-0107-1375627</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Sethi International Trans Inc</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>800E - 2700 Matheson Blvd E
+Mississauga, ON L4W 4V9</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://sethiinternational.ca/</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>16475261352</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>11/7/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/mississauga/profile/transportation/one-call-logistics-solutions-ltd-0107-1272809</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>One Call Logistics Solutions Ltd.</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2722 Rena Rd.
+Mississauga, ON L4T 3J9</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>tel:416-410-4575</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>14164104575</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>14/3/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/scarborough/profile/transportation/air-logistics-services-0107-1177141</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Air Logistics Services</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>26-4186 Finch Ave. E.
+Scarborough, ON M1S 5H6</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/scarborough/profile/transportation/air-logistics-services-0107-1177141/email-this-business?email=primary</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>18668828865</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>8/9/2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/brampton/profile/transportation/cargo-county-group-0107-1359312</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Cargo County Group</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>210 - 45 Bramalea Rd
+Brampton, ON L6T 2W4</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>http://cargocounty.com/</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>18886739601</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>24/1/2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/mississauga/profile/freight-container/meditarranean-shipping-company-msc-0107-1265404</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Meditarranean Shipping Company (MSC)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>200 - 2810 Matheson Blvd E
+Mississauga, ON L4W 4X7</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>http://mscgva.ch/</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>12897770080</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>28/11/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/georgetown/profile/transportation/out-n-about-companion-services-0107-1157996</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Out 'n' About Companion Services</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>4 Riverview Cres
+Georgetown, ON L7G 3K3</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>tel:905-875-6118</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>19058756118</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>15/7/2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/brampton/profile/transportation/clarke-transport-0107-1373618</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Clarke Transport</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>200 - 201 Westcreek
+Brampton, ON L6T 5S6</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>http://clarkelink.com/</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>19052913000</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>17/4/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/kitchener/profile/transportation/ws-bell-cartage-0107-5387</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>W.S. Bell Cartage</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Kitchener, ON N2K 1E6</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>http://bellcartage.com/</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>15197443597</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>29/6/1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/woodbridge/profile/transportation/avaal-technology-solutions-inc-0107-1178474</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Avaal Technology Solutions Inc</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>300 - 7050 Weston Rd.
+Woodbridge, ON L4L 8G7</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>http://www.avaal.com/</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>16479431313</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>23/10/2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/north-york/profile/transportation/rolan-transport-0107-1372559</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Rolan Transport</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>1900 Sheppard Ave E
+North York, ON M2J 4T4</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>tel:416-528-9100</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>14165289100</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>10/3/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/etobicoke/profile/transportation/tfx-international-specialized-vehicle-transport-0107-1165122</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>TFX International Specialized Vehicle Transport</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>11 City View Dr
+Etobicoke, ON M9W 5A5</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>http://tfxinternational.com/</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>14162438531</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2/1/2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/hamilton/profile/transportation/canuck-brothers-transport-inc-0107-1402205</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Canuck Brothers Transport Inc</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1030 Upper James Unit 203
+Hamilton, ON L9C 6X6</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://canuckbrotherstransport.com/</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>18332268252</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>27/3/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/bolton/profile/transportation/m-s-m-transportation-network-0107-1033269</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>M S M Transportation Network</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>124 Commercial Rd
+Bolton, ON L7E 1K4</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>tel:905-951-6800</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>19059516800</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>27/6/2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/mississauga/profile/logistics/salyas-international-inc-0107-1292069</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Salyas International Inc.</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>5211 Creekbank Rd
+Mississauga, ON L4W 1R3</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>tel:416-637-1869</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>14166371869</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>14/3/2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/concord/profile/transportation/jd-smith-0107-1152209</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>JD Smith</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>180 Basaltic Road
+Concord, ON L4K 1G8</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>tel:905-669-8980</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>19056698980</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>16/1/2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/brampton/profile/transportation/beaver-transport-0107-1393303</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Beaver Transport</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>3 - 5 Intermodal Dr
+Brampton, ON L6T 5N6</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>tel:905-791-3600</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>19057913600</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>6/12/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/toronto/profile/transportation/indo-canadian-transportation-0107-1225714</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Indo Canadian Transportation</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>1826 St Clair Ave W
+Toronto, ON M6N 1J5</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>http://www.indocanadiantransport.com/</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>14168392193</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>20/12/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/brampton/profile/transportation/dangerous-goods-management-services-0107-1345932</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Dangerous Goods Management Services</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>86 Castlehill Rd
+Brampton, ON L6X 4C7</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>http://dgms.ca/contact</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>16479913704</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>12/12/2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/north-york/profile/moving-companies/perfection-movers-0107-1298976</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Perfection Movers</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>16 Rosette Crt
+North York, ON M9M 1Z7</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>http://www.perfectionmovers.ca/</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>14164000008</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>27/8/2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/cambridge/profile/transportation/pioneer-cambridge-transport-inc-0107-1051352</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Pioneer Cambridge Transport Inc</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>RR #31 - Limerick Rd
+Cambridge, ON N3H 4R6</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>tel:519-650-5742</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>15196505742</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>18/8/2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/orillia/profile/motor-freight-trucking/jackson-transportation-systems-inc-0107-1284937</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Jackson Transportation Systems Inc.</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>PO Box 2293
+Orillia, ON L3V 6S2</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>http://www.jacksontransportation.com/</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>17053268888</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>11/10/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/scarborough/profile/transportation/t-eid-transportation-0107-1385530</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>T Eid Transportation</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>86 Tower Dr
+Scarborough, ON M1R 3P2</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>http://teidstransportation.ca/</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>14167512414</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>18/8/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/toronto/profile/transportation/uber-canada-inc-0107-1344833?addressId=80988</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Uber Canada Inc</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>5300 - 66 Wellington St W
+Toronto, ON M5K 1E6</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://www.uber.com/</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>18003538237</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1725 3rd St, San Francisco, CA 94158-2203</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/mississauga/profile/logistics/intangles-lab-corporation-0107-1405462</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Intangles Lab Corporation</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>90 Burnhamthorpe Road, West Sussex Centre, Suite 1400
+Mississauga, ON L5B 3C3</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://www.intangles.ai/</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>17472292727</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>16/7/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/brampton/profile/moving-companies/matco-moving-solutions-0107-1396696?addressId=111684</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Matco Moving Solutions</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>396 Clarence St
+Brampton, ON L6W 1T6</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://www.matco.ca/</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>19057981130</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>27 - 12632 184 Street NW, Edmonton, AB T5V 1T4</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/concord/profile/logistics/reliable-transportation-link-0107-1403755</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Reliable Transportation Link</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>1B - 45 Basaltic Rd
+Concord, ON L4K 2T8</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://goreliable.ca/</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>19056607766</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>11/5/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/brampton/profile/towing-company/swift-towing-and-transport-inc-0107-1390085</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Swift Towing And Transport INC</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>63 Selby
+Brampton, ON L6W1K5</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>http://swifttowingandtransport.com/</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>14163154136</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3/3/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/toronto/profile/moving-and-storage-companies/fluent-moving-storage-0107-1334003</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Fluent Moving &amp; Storage</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>35 - 2220 Midland Ave
+Toronto, ON M1P 3E6</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>http://fluentmoving.com/</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>14168199829</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>25/10/2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/toronto/profile/packaging-supplies/consolidated-bottle-corporation-0107-1045680</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Consolidated Bottle Corporation</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>77 Union St
+Toronto, ON M6N 3N2</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>http://www.consbottle.com/</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>14166567777</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>8/4/2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/toronto/profile/transportation/drink-dial-0107-1340315</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Drink &amp; Dial</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>220 Yonge St
+Toronto, ON M5B 2H1</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>http://drinkanddial.ca/</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>14166486809</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>20/6/2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/mississauga/profile/express-shipping-services/blue-arrow-baggage-services-0107-1382440</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Blue Arrow Baggage Services</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>CO3 &amp; CO4 - 1515 Matheson Blvd E
+Mississauga, ON L4W 2P5</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>http://bluearrowcargo.ca/baggage.html</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>16478473187</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>20/4/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/markham/profile/transportation/stock-transportation-0107-1238072</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Stock Transportation</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>800 - 60 Columbia Way
+Markham, ON L3R 0C9</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>http://www.stocktransportation.com/</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>19059409977</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>28/6/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/mississauga/profile/transportation/guilbault-transport-0107-1177266</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Guilbault Transport</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>1335 Shawson Dr.
+Mississauga, ON L4W 1C4</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>tel:905-565-1511</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>19055651511</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>14/9/2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/hamilton/profile/transportation/wills-private-transportation-ltd-0107-1397993</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Will's Private Transportation Ltd</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>10 Greenbrook Dr
+Hamilton, ON L8G 2H3</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>tel:289-456-1140</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>12894561140</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>12/12/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/orillia/profile/transportation/dwinnells-delivery-movers-ltd-0107-25793</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Dwinnell's Delivery &amp; Movers Ltd</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>367 Gill St
+Orillia, ON L3V 4K5</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>tel:705-325-5983</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>17053255983</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>7/6/2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/etobicoke/profile/transportation/wave-line-ltd-0107-1164394</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Wave Line Ltd</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>541 Kipling Av
+Etobicoke, ON M8Z 5E7</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>tel:416-521-9911</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>14165219911</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>16/12/2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/mississauga/profile/transportation/aberstar-fast-freight-ltd-0107-1290900</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Aberstar Fast Freight Ltd</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2880 Argentia Rd
+Mississauga, ON L5N 7X8</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>http://www.aberstar.com/</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>19058260128</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>19/2/2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/brampton/profile/towing-company/dons-heavy-towing-float-service-0107-1166597</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Dons Heavy Towing &amp; Float Service</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>10 - 8550 Torbram Rd Suite 246
+Brampton, ON L6T 0H7</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>http://donsheavytowing.com/</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>19057995995</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3/2/2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/mississauga/profile/transportation/yamato-transport-usa-inc-0107-1237178</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Yamato Transport USA Inc.</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>6330 Viscount Road
+Mississauga, ON L4V 1H3</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>tel:905-677-2022</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>19056772022</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>15/6/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/mississauga/profile/transportation/global-logistics-management-0107-1178029</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Global Logistics Management</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>18 - 151 Brunel Rd
+Mississauga, ON L4Z 2H6</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>http://glmanagement.ca/</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>19055019959</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>7/10/2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/mississauga/profile/freight-forwarding/blue-arrow-cargo-corporation-0107-1305603</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Blue Arrow Cargo Corporation</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>E47 - 2601 Matheson Blvd E
+Mississauga, ON L4W 5A8</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>http://bluearrowcargo.ca/</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>16478473187</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>6/2/2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/richmond-hill/profile/limo-service/limo-net-0107-1406903</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Limo Net</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>76 Formosa Drive
+Richmond Hill, ON L4S 1S9</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://limonet.ca/</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>14169707311</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>24/8/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/mississauga/profile/transportation/trott-transit-ltd-0107-1285680</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Trott Transit Ltd.</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>15 James St.
+Mississauga, ON L5M 1R4</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>http://www.trott.ca/</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>19058266629</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>28/10/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/north-york/profile/transportation/pacart-0107-1342114</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>PacArt</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>100 Carnforth Rd
+North York, ON M4A 2K7</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>http://pacart.ca/</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>14167540000</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>24/8/2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/mississauga/profile/transportation/am-transport-inc-0107-1164428</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>AM Transport Inc</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>135 Watline Ave
+Mississauga, ON L4Z 1P2</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>tel:905-624-5728</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>19056245728</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>16/12/2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/mississauga/profile/transportation/tennessee-international-freight-inc-0107-1069426</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Tennessee International Freight Inc</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2734 Slought St
+Mississauga, ON L4T 1G3</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>http://tennesseeintl.ca/</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>19054058227</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>10/8/2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/concord/profile/transportation/fast-links-inc-0107-1381165</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Fast-Links Inc</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2 - 56 Romina Dr
+Concord, ON L4K 4Z7</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>http://fast-links.com/</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>19058514773</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>24/2/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/mississauga/profile/transportation/over-the-road-transportation-0107-1356951</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Over the Road Transportation</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>191 Superior Blvd
+Mississauga, ON L5T 2L6</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>http://overtheroad.net/</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>19055642626</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>23/11/2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/brampton/profile/transportation/dynamex-canada-corp-0107-7149</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Dynamex Canada Corp</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>107 Alfred Kuehne Blvd
+Brampton, ON L6T 4K3</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>tel:905-494-7600</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>19054947600</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>29/6/1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/mississauga/profile/transportation/canadian-expedite-0107-1156392</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Canadian Expedite</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>6535 Millcreek Dr
+Mississauga, ON L5N 2M2</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>tel:905-821-8279</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>19058218279</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>30/5/2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/milton/profile/health/medigas-0107-1147753</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Medigas</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2-8695 Escarpment Way
+Milton, ON L9T 0J5</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>http://medigas.com/</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>19058031600</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>26/4/2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/mississauga/profile/transportation/acutrans-express-0107-1301537</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Acutrans Express</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>6-6855 Airport Rd
+Suite 315
+Mississauga, ON L4V 1Y9</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>tel:647-740-0618</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>16477400618</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>28/10/2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/brampton/profile/transportation/g-n-transport-inc-0107-1371693</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>G N Transport Inc</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2 Arrowstone Crt
+Brampton, ON L6R 3T5</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>4/2/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/scotland/profile/transportation/thunderbird-transportation-0107-1301626</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Thunderbird Transportation</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>258 Oakland Dr
+Scotland, ON N0E 1R0</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>tel:519-717-4868</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>15197174868</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>30/10/2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/ca/on/etobicoke/profile/transportation/canaan-transport-group-inc-0107-1230490</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Canaan Transport Group Inc</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>910 - 185 The West Mall
+Etobicoke, ON M9C 5L5</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>http://canaantransport.com/</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>14166216800</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3/3/2011</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
